--- a/Documentation/Sprint_Review_Protocol_2.xlsx
+++ b/Documentation/Sprint_Review_Protocol_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omuel\Documents\GitHub\ITP2_PC_Game\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matus\Documents\ITP2_PC\ITP2_PC_Game\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE3D110-C45F-4B6B-86DE-E2DA10607700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE24AAB-8FEF-41CE-87F8-477A67313292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -147,15 +151,9 @@
     <t xml:space="preserve">[Porubsky] Videos about Grids and 2D approaches </t>
   </si>
   <si>
-    <t>[Porubsky] Organization &amp; communication</t>
-  </si>
-  <si>
     <t>30 assets done, mainly gameworld (estimated 10 left - mainly single units) // Designing takes longer than expected</t>
   </si>
   <si>
-    <t>[Porubsky] Reading Unity documentation</t>
-  </si>
-  <si>
     <t>Watching introductory videos to Unity on Youtube</t>
   </si>
   <si>
@@ -196,6 +194,24 @@
   </si>
   <si>
     <t>[Everyone] Meeting - Finish game concept and rules</t>
+  </si>
+  <si>
+    <t>Started practicing in Unity with Unity Learn and by watching tutorial videos</t>
+  </si>
+  <si>
+    <t>Read into and watch videos building grids in Unity and making them useable (preparation for implementation)</t>
+  </si>
+  <si>
+    <t>Accumulated time spend organizing and planning</t>
+  </si>
+  <si>
+    <t>[Porubsky/ Faltas] Organization &amp; communication</t>
+  </si>
+  <si>
+    <t>[Porubsky] Studying Unity and C#</t>
+  </si>
+  <si>
+    <t>Studying unity basics (Unity documentation) and C#</t>
   </si>
 </sst>
 </file>
@@ -447,69 +463,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -518,6 +471,69 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -834,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3C726-37E9-451B-9308-D99ECF6E7468}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -846,33 +862,33 @@
     <col min="4" max="4" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.42578125" style="2"/>
-    <col min="8" max="8" width="144.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="128.85546875" style="2" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -890,129 +906,129 @@
         <v>1</v>
       </c>
       <c r="B4" s="27"/>
-      <c r="C4" s="18">
+      <c r="C4" s="30">
         <v>2</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="30">
+      <c r="B5" s="29"/>
+      <c r="C5" s="32">
         <v>44676</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="20">
+      <c r="B6" s="29"/>
+      <c r="C6" s="33">
         <v>8</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1106,14 +1122,14 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
       <c r="H18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="7">
@@ -1128,7 +1144,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1136,7 +1152,7 @@
       <c r="A20" s="8">
         <v>5</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="7">
@@ -1151,7 +1167,7 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1159,7 +1175,7 @@
       <c r="A21" s="8">
         <v>6</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="7">
@@ -1174,13 +1190,15 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>7</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="7">
@@ -1195,14 +1213,16 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>8</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>38</v>
+      <c r="B23" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -1210,20 +1230,22 @@
       <c r="D23" s="7">
         <v>1</v>
       </c>
-      <c r="E23" s="36">
-        <f t="shared" ref="E23:E33" si="1">D23-C23</f>
+      <c r="E23" s="15">
+        <f t="shared" ref="E23:E31" si="1">D23-C23</f>
         <v>0</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>9</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>40</v>
+      <c r="B24" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -1231,20 +1253,22 @@
       <c r="D24" s="7">
         <v>1</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>10</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>52</v>
+      <c r="B25" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C25" s="7">
         <v>4</v>
@@ -1252,214 +1276,213 @@
       <c r="D25" s="7">
         <v>4</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35">
+      <c r="H25" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
         <v>11</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="34">
+      <c r="B26" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="13">
         <v>3</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="13">
         <v>3</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <v>12</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="34">
+      <c r="B27" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="13">
         <v>2</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="13">
         <v>3</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34" t="s">
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>13</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>14</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35">
-        <v>13</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="34">
+      <c r="C29" s="13">
+        <v>2</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>15</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="13">
+        <v>2</v>
+      </c>
+      <c r="D30" s="13">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>16</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="13">
         <v>1</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D31" s="13">
         <v>1</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E31" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35">
-        <v>14</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="34">
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>17</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="15">
+        <f>D32-C32</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>18</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="13">
         <v>2</v>
       </c>
-      <c r="D29" s="34">
-        <v>2</v>
-      </c>
-      <c r="E29" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="34"/>
-    </row>
-    <row r="30" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
-        <v>15</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="34">
-        <v>2</v>
-      </c>
-      <c r="D30" s="34">
-        <v>2</v>
-      </c>
-      <c r="E30" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
-    </row>
-    <row r="31" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
-        <v>16</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="34">
-        <v>1</v>
-      </c>
-      <c r="D31" s="34">
-        <v>1</v>
-      </c>
-      <c r="E31" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
-    </row>
-    <row r="32" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35">
-        <v>17</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="34">
-        <v>1</v>
-      </c>
-      <c r="D32" s="34">
-        <v>1</v>
-      </c>
-      <c r="E32" s="36">
-        <f>D32-C32</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-    </row>
-    <row r="33" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35">
-        <v>18</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="34">
-        <v>2</v>
-      </c>
-      <c r="D33" s="34">
+      <c r="D33" s="13">
         <v>4</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="15">
         <f>D33-C33</f>
         <v>2</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-    </row>
-    <row r="34" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
         <v>19</v>
       </c>
-      <c r="B34" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="34">
+      <c r="B34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="13">
         <v>2</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="13">
         <v>4</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="15">
         <f>D34-C34</f>
         <v>2</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <f>COUNT(A16:A34)</f>
         <v>19</v>
       </c>
       <c r="B35" s="6"/>
@@ -1492,6 +1515,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
@@ -1508,10 +1535,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Sprint_Review_Protocol_2.xlsx
+++ b/Documentation/Sprint_Review_Protocol_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matus\Documents\ITP2_PC\ITP2_PC_Game\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE24AAB-8FEF-41CE-87F8-477A67313292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D331EDD-1830-4B73-AF2A-E070FEE98A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
@@ -471,6 +471,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -507,12 +525,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -521,18 +533,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,6 +549,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7155025</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7DD0082-95CB-416F-9073-DD75037DA365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7210425"/>
+          <a:ext cx="16365700" cy="8382000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -850,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3C726-37E9-451B-9308-D99ECF6E7468}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -867,28 +916,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -902,133 +951,133 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="30">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34">
         <v>2</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="32">
+      <c r="B5" s="19"/>
+      <c r="C5" s="36">
         <v>44676</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="33">
+      <c r="B6" s="19"/>
+      <c r="C6" s="16">
         <v>8</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="24" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1515,18 +1564,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
@@ -1535,8 +1577,16 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>